--- a/REGULAR/1-RETIRED/FERMA, AMELITA.xlsx
+++ b/REGULAR/1-RETIRED/FERMA, AMELITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\1-RETIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3CBB0-E243-440C-A0DC-004C775B66AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0AC99A-EC39-435E-86C5-80E05C74280D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
   <si>
     <t>PERIOD</t>
   </si>
@@ -445,6 +437,9 @@
   </si>
   <si>
     <t>TOTAL SL = 265.750</t>
+  </si>
+  <si>
+    <t>LEAVE TRANSFER CREDIT 1993 TO 2013</t>
   </si>
 </sst>
 </file>
@@ -457,7 +452,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +495,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -689,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,6 +862,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2879,7 +2887,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -3268,9 +3276,9 @@
   <dimension ref="A2:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A142" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I152" sqref="I152"/>
+      <pane ySplit="3576" topLeftCell="A146" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3292,68 +3300,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="61"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="61"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="69">
-        <v>30684</v>
-      </c>
-      <c r="G3" s="66"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3379,18 +3385,18 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3435,83 +3441,74 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>187.548</v>
-      </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="13">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>265.75</v>
-      </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="20"/>
+      <c r="A10" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="60"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
+        <v>132.26</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="39"/>
-      <c r="I10" s="34" t="s">
-        <v>32</v>
+      <c r="I10" s="13">
+        <v>136.75</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
-        <v>41670</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D11" s="39">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="A11" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <v>41698</v>
+        <v>41670</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
       <c r="D12" s="39">
-        <v>0.28300000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
@@ -3526,16 +3523,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>41729</v>
+        <v>41698</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
       </c>
       <c r="D13" s="39">
-        <v>0.38500000000000001</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
@@ -3550,16 +3547,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>41759</v>
+        <v>41729</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
       <c r="D14" s="39">
-        <v>0.92100000000000004</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
@@ -3574,16 +3571,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>41790</v>
+        <v>41759</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
       <c r="D15" s="39">
-        <v>0.36</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
@@ -3598,64 +3595,64 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <v>41820</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>63</v>
+        <v>41790</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43">
-        <v>0.75</v>
+      <c r="D16" s="39">
+        <v>0.36</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="39"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <v>41851</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>64</v>
+        <v>41820</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
       </c>
-      <c r="D17" s="39">
-        <v>1.327</v>
+      <c r="D17" s="43">
+        <v>0.75</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="39"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="43"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>41882</v>
+        <v>41851</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
       </c>
       <c r="D18" s="39">
-        <v>0.6</v>
+        <v>1.327</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
@@ -3670,16 +3667,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <v>41912</v>
+        <v>41882</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
       <c r="D19" s="39">
-        <v>1.55</v>
+        <v>0.6</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
@@ -3694,16 +3691,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>41943</v>
+        <v>41912</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
       </c>
       <c r="D20" s="39">
-        <v>0.77900000000000003</v>
+        <v>1.55</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
@@ -3718,16 +3715,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <v>41973</v>
+        <v>41943</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
       <c r="D21" s="39">
-        <v>2</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
@@ -3738,40 +3735,42 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="40">
+        <v>41973</v>
+      </c>
       <c r="B22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
-        <v>0.32300000000000001</v>
+        <v>3</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
@@ -3782,26 +3781,24 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40">
-        <v>42004</v>
-      </c>
+      <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1.25</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C24" s="13"/>
       <c r="D24" s="39">
-        <v>1.573</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
@@ -3809,17 +3806,23 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="40">
+        <v>42004</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="39">
+        <v>1.573</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3827,84 +3830,82 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
-        <v>42035</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="39">
-        <v>1</v>
-      </c>
+      <c r="A26" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="58">
-        <v>42007</v>
-      </c>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>42035</v>
+      </c>
       <c r="B27" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39">
-        <v>0.49399999999999999</v>
+        <v>1</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="58"/>
+      <c r="K27" s="58">
+        <v>42007</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
-        <v>42063</v>
-      </c>
+      <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="39">
-        <v>3.19</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>42094</v>
-      </c>
-      <c r="B29" s="20"/>
+        <v>42063</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C29" s="13">
         <v>1.25</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="39">
+        <v>3.19</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
@@ -3918,17 +3919,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>42124</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>42094</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
-      <c r="D30" s="39">
-        <v>0.44600000000000001</v>
-      </c>
+      <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
@@ -3942,16 +3939,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>42155</v>
+        <v>42124</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
       </c>
       <c r="D31" s="39">
-        <v>0.17700000000000002</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
@@ -3966,16 +3963,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>42185</v>
+        <v>42155</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
       </c>
       <c r="D32" s="39">
-        <v>0.23500000000000001</v>
+        <v>0.17700000000000002</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
@@ -3990,16 +3987,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>42216</v>
+        <v>42185</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
       <c r="D33" s="39">
-        <v>3</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
@@ -4010,130 +4007,132 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40">
+        <v>42216</v>
+      </c>
       <c r="B34" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="39">
-        <v>0.34599999999999997</v>
+        <v>3</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
-        <v>42247</v>
-      </c>
+      <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D35" s="39"/>
+        <v>81</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="39">
+        <v>0.34599999999999997</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="40">
+        <v>42247</v>
+      </c>
       <c r="B36" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="39">
-        <v>1.4689999999999999</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D36" s="39"/>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="39"/>
+      <c r="G36" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H36" s="39">
+        <v>1</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
-        <v>42277</v>
-      </c>
+      <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39">
+        <v>1.4689999999999999</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>42277</v>
+      </c>
       <c r="B38" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="39">
-        <v>3</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="58" t="s">
-        <v>87</v>
+      <c r="K38" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39">
-        <v>0.34799999999999998</v>
+        <v>3</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
@@ -4144,92 +4143,90 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="58"/>
+      <c r="K39" s="58" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40">
-        <v>42308</v>
-      </c>
+      <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D40" s="39"/>
+        <v>89</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="39">
+        <v>0.34799999999999998</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>42308</v>
+      </c>
       <c r="B41" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H41" s="39">
-        <v>2</v>
-      </c>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="39">
-        <v>0.35399999999999998</v>
-      </c>
+      <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H42" s="39"/>
+      <c r="H42" s="39">
+        <v>2</v>
+      </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40">
-        <v>42338</v>
-      </c>
+      <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="39">
-        <v>0.36499999999999999</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -4238,16 +4235,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>42369</v>
+        <v>42338</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
       <c r="D44" s="39">
-        <v>0.45400000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
@@ -4261,17 +4258,23 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="39"/>
+      <c r="A45" s="40">
+        <v>42369</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="39">
+        <v>0.45400000000000001</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -4279,23 +4282,17 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
-        <v>42400</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D46" s="39">
-        <v>0.23500000000000001</v>
-      </c>
+      <c r="A46" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
@@ -4304,13 +4301,17 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>42429</v>
-      </c>
-      <c r="B47" s="20"/>
+        <v>42400</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39"/>
+      <c r="D47" s="39">
+        <v>0.23500000000000001</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -4324,7 +4325,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>42460</v>
+        <v>42429</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4344,17 +4345,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>42490</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>96</v>
-      </c>
+        <v>42460</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="13">
         <v>1.25</v>
       </c>
-      <c r="D49" s="39">
-        <v>0.371</v>
-      </c>
+      <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -4368,16 +4365,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>42521</v>
+        <v>42490</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
       <c r="D50" s="39">
-        <v>3</v>
+        <v>0.371</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
@@ -4388,92 +4385,92 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>42521</v>
+      </c>
       <c r="B51" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39">
-        <v>0.496</v>
+        <v>3</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40">
-        <v>42551</v>
-      </c>
+      <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39">
+        <v>0.496</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="40">
+        <v>42551</v>
+      </c>
       <c r="B53" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="39">
-        <v>0.39800000000000002</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40">
-        <v>42582</v>
-      </c>
+      <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1.25</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C54" s="13"/>
       <c r="D54" s="39">
-        <v>1.5209999999999999</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -4482,16 +4479,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>42613</v>
+        <v>42582</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
       <c r="D55" s="39">
-        <v>1.4729999999999999</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
@@ -4506,16 +4503,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>42643</v>
+        <v>42613</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
       <c r="D56" s="39">
-        <v>0.27500000000000002</v>
+        <v>1.4729999999999999</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
@@ -4530,16 +4527,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>42674</v>
+        <v>42643</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
       <c r="D57" s="39">
-        <v>0.39800000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
@@ -4554,16 +4551,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>42704</v>
+        <v>42674</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
       <c r="D58" s="39">
-        <v>0.752</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
@@ -4578,16 +4575,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>42735</v>
+        <v>42704</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
       </c>
       <c r="D59" s="39">
-        <v>2</v>
+        <v>0.752</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
@@ -4598,39 +4595,41 @@
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>42735</v>
+      </c>
       <c r="B60" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+        <v>105</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39">
+        <v>2</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="39">
-        <v>5</v>
-      </c>
+      <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13" t="str">
@@ -4641,17 +4640,17 @@
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39">
-        <v>0.81499999999999995</v>
+        <v>5</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
@@ -4662,15 +4661,19 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>0.81499999999999995</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13" t="str">
@@ -4683,23 +4686,17 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40">
-        <v>42766</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="39">
-        <v>1.0900000000000001</v>
-      </c>
+      <c r="A64" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4708,16 +4705,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>42794</v>
+        <v>42766</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
       <c r="D65" s="39">
-        <v>0.34599999999999997</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
@@ -4732,16 +4729,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>42825</v>
+        <v>42794</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
       <c r="D66" s="39">
-        <v>1.2789999999999999</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
@@ -4756,13 +4753,17 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>42855</v>
-      </c>
-      <c r="B67" s="20"/>
+        <v>42825</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>1.2789999999999999</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -4776,7 +4777,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>42886</v>
+        <v>42855</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4796,7 +4797,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>42916</v>
+        <v>42886</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4816,17 +4817,13 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>42947</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>114</v>
-      </c>
+        <v>42916</v>
+      </c>
+      <c r="B70" s="20"/>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4840,16 +4837,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>42978</v>
+        <v>42947</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
       <c r="D71" s="39">
-        <v>1.0149999999999999</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
@@ -4864,16 +4861,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>43008</v>
+        <v>42978</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
       <c r="D72" s="39">
-        <v>0.04</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
@@ -4888,15 +4885,17 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>43039</v>
+        <v>43008</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -4906,15 +4905,15 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>43069</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>43039</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
@@ -4928,21 +4927,19 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>43100</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>118</v>
-      </c>
+        <v>43069</v>
+      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39">
-        <v>5</v>
-      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4955,17 +4952,23 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="A76" s="40">
+        <v>43100</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39">
+        <v>5</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4973,19 +4976,17 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
-        <v>43131</v>
+      <c r="A77" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4994,17 +4995,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>43159</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>88</v>
-      </c>
+        <v>43131</v>
+      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39">
-        <v>3</v>
-      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -5014,19 +5011,21 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>43190</v>
-      </c>
-      <c r="B79" s="20"/>
+        <v>43159</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>3</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -5036,11 +5035,13 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>43220</v>
+        <v>43190</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5060,11 +5061,9 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>43251</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>85</v>
-      </c>
+        <v>43220</v>
+      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -5078,16 +5077,14 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>43281</v>
+        <v>43251</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -5103,58 +5100,60 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>43281</v>
+      </c>
       <c r="B83" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="58">
-        <v>43279</v>
+      <c r="K83" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40">
-        <v>43312</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D84" s="39"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="39">
+        <v>1</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="58">
+        <v>43279</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>43343</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>82</v>
-      </c>
+        <v>43312</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -5165,20 +5164,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39">
-        <v>1</v>
-      </c>
+      <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="58">
-        <v>43335</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>43373</v>
-      </c>
-      <c r="B86" s="20"/>
+        <v>43343</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -5189,14 +5186,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="58">
+        <v>43335</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>43404</v>
+        <v>43373</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5216,7 +5217,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>43434</v>
+        <v>43404</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5236,17 +5237,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>43465</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>122</v>
-      </c>
+        <v>43434</v>
+      </c>
+      <c r="B89" s="20"/>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
-      <c r="D89" s="39">
-        <v>1</v>
-      </c>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
@@ -5256,42 +5253,46 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="58">
-        <v>43454</v>
-      </c>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="A90" s="40">
+        <v>43465</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="58">
+        <v>43454</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40">
-        <v>43496</v>
+      <c r="A91" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -5300,11 +5301,9 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>43524</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>85</v>
-      </c>
+        <v>43496</v>
+      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
@@ -5318,15 +5317,15 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>43555</v>
-      </c>
-      <c r="B93" s="20"/>
+        <v>43524</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
@@ -5340,11 +5339,13 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5364,17 +5365,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>43616</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>105</v>
-      </c>
+        <v>43585</v>
+      </c>
+      <c r="B95" s="20"/>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
-      <c r="D95" s="39">
-        <v>2</v>
-      </c>
+      <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13">
@@ -5384,21 +5381,21 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
-      <c r="D96" s="39"/>
+      <c r="D96" s="39">
+        <v>2</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13">
@@ -5409,14 +5406,16 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>43677</v>
-      </c>
-      <c r="B97" s="20"/>
+        <v>43646</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C97" s="13">
         <v>1.25</v>
       </c>
@@ -5430,11 +5429,13 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>43708</v>
+        <v>43677</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
@@ -5454,11 +5455,9 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>43738</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>91</v>
-      </c>
+        <v>43708</v>
+      </c>
+      <c r="B99" s="20"/>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
@@ -5469,20 +5468,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H99" s="39">
-        <v>2</v>
-      </c>
+      <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>43769</v>
-      </c>
-      <c r="B100" s="20"/>
+        <v>43738</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C100" s="13">
         <v>1.25</v>
       </c>
@@ -5493,14 +5490,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H100" s="39"/>
+      <c r="H100" s="39">
+        <v>2</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>43799</v>
+        <v>43769</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5520,17 +5521,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>43830</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>122</v>
-      </c>
+        <v>43799</v>
+      </c>
+      <c r="B102" s="20"/>
       <c r="C102" s="13">
         <v>1.25</v>
       </c>
-      <c r="D102" s="39">
-        <v>1</v>
-      </c>
+      <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
@@ -5540,37 +5537,43 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="58">
-        <v>43826</v>
-      </c>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>43830</v>
+      </c>
       <c r="B103" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D103" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="58"/>
+      <c r="K103" s="58">
+        <v>43826</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B104" s="20"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
+      <c r="D104" s="39">
+        <v>2</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
@@ -5580,37 +5583,33 @@
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="58"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40">
-        <v>43861</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A105" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>43890</v>
-      </c>
-      <c r="B106" s="20"/>
+        <v>43861</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C106" s="13">
         <v>1.25</v>
       </c>
@@ -5624,11 +5623,13 @@
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>43921</v>
+        <v>43890</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13">
@@ -5648,7 +5649,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>43951</v>
+        <v>43921</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5668,7 +5669,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>43982</v>
+        <v>43951</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -5688,7 +5689,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>44012</v>
+        <v>43982</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13">
@@ -5708,7 +5709,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>44043</v>
+        <v>44012</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5728,7 +5729,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>44074</v>
+        <v>44043</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5748,7 +5749,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>44104</v>
+        <v>44074</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5768,7 +5769,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>44135</v>
+        <v>44104</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5788,7 +5789,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>44165</v>
+        <v>44135</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -5808,17 +5809,13 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>44196</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>118</v>
-      </c>
+        <v>44165</v>
+      </c>
+      <c r="B116" s="20"/>
       <c r="C116" s="13">
         <v>1.25</v>
       </c>
-      <c r="D116" s="39">
-        <v>5</v>
-      </c>
+      <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13">
@@ -5831,17 +5828,23 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
+      <c r="A117" s="40">
+        <v>44196</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D117" s="39">
+        <v>5</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
@@ -5849,19 +5852,17 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40">
-        <v>44227</v>
+      <c r="A118" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C118" s="13"/>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
@@ -5870,7 +5871,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>44255</v>
+        <v>44227</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
@@ -5890,7 +5891,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>44286</v>
+        <v>44255</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5910,7 +5911,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5930,7 +5931,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>44347</v>
+        <v>44316</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -5950,7 +5951,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>44377</v>
+        <v>44347</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -5970,17 +5971,13 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>44408</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>109</v>
-      </c>
+        <v>44377</v>
+      </c>
+      <c r="B124" s="20"/>
       <c r="C124" s="13">
         <v>1.25</v>
       </c>
-      <c r="D124" s="39">
-        <v>5</v>
-      </c>
+      <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
       <c r="G124" s="13">
@@ -5990,53 +5987,57 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20" t="s">
-        <v>129</v>
-      </c>
+      <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>44408</v>
+      </c>
       <c r="B125" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D125" s="39">
+        <v>5</v>
+      </c>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40">
-        <v>44439</v>
-      </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="13"/>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>44469</v>
+        <v>44439</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -6056,7 +6057,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6076,7 +6077,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -6096,7 +6097,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -6115,17 +6116,19 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="48" t="s">
-        <v>57</v>
+      <c r="A131" s="40">
+        <v>44561</v>
       </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
@@ -6133,19 +6136,17 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40">
-        <v>44592</v>
+      <c r="A132" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C132" s="13"/>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
@@ -6154,7 +6155,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6174,7 +6175,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -6194,7 +6195,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>44681</v>
+        <v>44651</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6214,7 +6215,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>44712</v>
+        <v>44681</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -6234,7 +6235,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6254,7 +6255,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>44773</v>
+        <v>44742</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13">
@@ -6274,7 +6275,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6294,7 +6295,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13">
@@ -6314,7 +6315,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
-        <v>44865</v>
+        <v>44834</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -6334,7 +6335,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>44895</v>
+        <v>44865</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6354,17 +6355,13 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>44926</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>118</v>
-      </c>
+        <v>44895</v>
+      </c>
+      <c r="B143" s="20"/>
       <c r="C143" s="13">
         <v>1.25</v>
       </c>
-      <c r="D143" s="39">
-        <v>5</v>
-      </c>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
       <c r="G143" s="13">
@@ -6377,15 +6374,23 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="40"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="39"/>
+      <c r="A144" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C144" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D144" s="39">
+        <v>5</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G144" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
@@ -6814,14 +6819,14 @@
       <c r="B171" s="15"/>
       <c r="C171" s="42"/>
       <c r="D171" s="43"/>
-      <c r="E171" s="59"/>
+      <c r="E171" s="61"/>
       <c r="F171" s="15"/>
       <c r="G171" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H171" s="43"/>
-      <c r="I171" s="59"/>
+      <c r="I171" s="61"/>
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
@@ -6839,7 +6844,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -6855,7 +6860,7 @@
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
 PREPARED BY: &amp;UJUEL D. COPER&amp;U
-DATE: &amp;D, &amp;T&amp;C
+DATE: 12/23/22, 9:40 AM&amp;C
 CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
                                    HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -6871,7 +6876,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6889,17 +6894,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="J1" s="71" t="s">
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="J1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -6931,12 +6936,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>132.26</v>
-      </c>
-      <c r="B3" s="11">
-        <v>136.75</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
@@ -6980,12 +6981,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/1-RETIRED/FERMA, AMELITA.xlsx
+++ b/REGULAR/1-RETIRED/FERMA, AMELITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0AC99A-EC39-435E-86C5-80E05C74280D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBBF46-B6A6-4309-8B9F-8780EBE49249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -433,13 +433,13 @@
     <t>7/26,27,28</t>
   </si>
   <si>
-    <t>TOTAL VL = 187.548</t>
-  </si>
-  <si>
     <t>TOTAL SL = 265.750</t>
   </si>
   <si>
     <t>LEAVE TRANSFER CREDIT 1993 TO 2013</t>
+  </si>
+  <si>
+    <t>TOTAL VL = 187.750</t>
   </si>
 </sst>
 </file>
@@ -3276,9 +3276,9 @@
   <dimension ref="A2:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A146" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
+      <selection activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3456,13 +3456,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="60"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13">
-        <v>132.26</v>
+        <v>132.46199999999999</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -6417,13 +6417,13 @@
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
       <c r="D146" s="57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
       <c r="G146" s="9"/>
       <c r="H146" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
